--- a/excelt/npc.xlsx
+++ b/excelt/npc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,35 +70,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackInter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackInter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
+    <t>AttackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +471,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -481,12 +493,14 @@
         <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
@@ -500,16 +514,17 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -522,15 +537,17 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
@@ -552,7 +569,9 @@
       <c r="F4" s="2">
         <v>1000</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>3</v>
+      </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +593,9 @@
       <c r="F5" s="2">
         <v>1000</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>5</v>
+      </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
@@ -596,7 +617,9 @@
       <c r="F6" s="2">
         <v>5000</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>10</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
@@ -618,7 +641,9 @@
       <c r="F7" s="2">
         <v>3000</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
@@ -640,7 +665,9 @@
       <c r="F8" s="2">
         <v>2000</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2">
+        <v>2.1</v>
+      </c>
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8">

--- a/excelt/npc.xlsx
+++ b/excelt/npc.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/excelt/npc.xlsx
+++ b/excelt/npc.xlsx
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -169,9 +169,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -468,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -479,7 +476,7 @@
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,9 +498,8 @@
       <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -526,7 +522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -548,9 +544,8 @@
       <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -572,9 +567,8 @@
       <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -596,9 +590,8 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -620,9 +613,8 @@
       <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -644,9 +636,8 @@
       <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -668,9 +659,8 @@
       <c r="G8" s="2">
         <v>2.1</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
